--- a/AttendanceManagement/wwwroot/ExcelTemplates/Division Master.xlsx
+++ b/AttendanceManagement/wwwroot/ExcelTemplates/Division Master.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE18A406-E530-4C9F-A4D2-AC03CE54DA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E593B0E3-FE19-448C-85DB-F4665CD8FEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>ShortName</t>
+  </si>
+  <si>
+    <t>IsActive</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -428,6 +431,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="F2" s="1"/>
